--- a/test case.xlsx
+++ b/test case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="test case" sheetId="1" r:id="rId1"/>
+    <sheet name="issue" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
   <si>
     <t>Module</t>
   </si>
@@ -81,18 +81,12 @@
     <t>ensure turn to register panel if click 'create new account'</t>
   </si>
   <si>
-    <t>ensure turn to login panel if click 'has account already'</t>
-  </si>
-  <si>
     <t>ensure check register's email format valid </t>
   </si>
   <si>
     <t>ensure check register's password/confirm password valid</t>
   </si>
   <si>
-    <t>ensure register success if register'information is valid and display message then turn to login panel</t>
-  </si>
-  <si>
     <t>ensure display error msg if register'email is taken</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
   </si>
   <si>
     <t>ensure display message after send password email</t>
-  </si>
-  <si>
-    <t>ensure receive this email</t>
   </si>
   <si>
     <t>ensure list width is 300px at first and will remember width if change it.</t>
@@ -322,7 +313,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -332,7 +323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -347,7 +338,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -357,7 +348,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -372,7 +363,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -382,7 +373,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -397,7 +388,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -407,7 +398,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -498,35 +489,153 @@
   <si>
     <t>ensure all change will keep after refreshing page</t>
   </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nsure popup warning message if sync failed(should display one time for one failed)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nsure sync count is right</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensure turn to login panel if click 'Sign in'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ensure register success if register'information is valid and display message then turn to login panel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(need check mail or not)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nsure turn to login panel if click 'Back to login'</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ensure receive this email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> include new password</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iss msg</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +645,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,21 +673,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -582,7 +706,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -657,23 +781,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -709,23 +816,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -902,847 +992,887 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="98.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="146.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D6" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1" t="s">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C87" s="1" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="1" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="1" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="1" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="1" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="1" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="1" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="1" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C96" s="1" t="s">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="1" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="1" t="s">
+      <c r="B108" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="1" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B105" s="2" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B61:B71"/>
-    <mergeCell ref="A72:A86"/>
-    <mergeCell ref="A17:A71"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B87:B95"/>
-    <mergeCell ref="A87:A99"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B39:B60"/>
-    <mergeCell ref="B72:B77"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B38"/>
-    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B39"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B101:B107"/>
+    <mergeCell ref="A101:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B62:B72"/>
+    <mergeCell ref="A73:A87"/>
+    <mergeCell ref="A18:A72"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B88:B96"/>
+    <mergeCell ref="A88:A100"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B40:B61"/>
+    <mergeCell ref="B73:B78"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1752,8 +1882,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1764,8 +1895,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test case.xlsx
+++ b/test case.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="test case" sheetId="1" r:id="rId1"/>
@@ -111,13 +111,7 @@
     <t>ensure select project in toolbar works</t>
   </si>
   <si>
-    <t>ensure add new collection works(popup dialog include project drop down)</t>
-  </si>
-  <si>
     <t>ensure menu btn is visible if mouse is over item(collection, folder, record) and hide if mouse leave</t>
-  </si>
-  <si>
-    <t>ensure rename collection work</t>
   </si>
   <si>
     <t>ensure add folder in collection menu work (new folder and could rename)</t>
@@ -313,7 +307,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -323,7 +317,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -338,7 +332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -348,7 +342,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -363,7 +357,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -373,7 +367,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -388,7 +382,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -398,7 +392,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -497,7 +491,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -514,7 +508,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -535,7 +529,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -551,7 +545,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -568,7 +562,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -584,7 +578,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -592,36 +586,42 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>ensure add new collection works(popup dialog include project drop down, can't ok with no project)</t>
+  </si>
+  <si>
+    <t>ensure rename collection work, can't use empty name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -629,7 +629,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -682,15 +682,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -706,7 +706,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -781,6 +781,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -816,6 +833,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -994,21 +1028,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="146.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="139.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1025,836 +1059,840 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="D6" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="1" t="s">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="1" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="1" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+    <row r="37" spans="1:3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+    <row r="38" spans="1:3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+    <row r="39" spans="1:3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="1" t="s">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="1" t="s">
+    <row r="43" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="1" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="1" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88" s="1" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="1" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="1" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="1" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="1" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="1" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="1" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="1" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C97" s="1" t="s">
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="1" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="1" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="1" t="s">
+      <c r="B108" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B108" s="4" t="s">
+    <row r="109" spans="1:3">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C108" s="1" t="s">
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B39"/>
-    <mergeCell ref="A2:A17"/>
     <mergeCell ref="B101:B107"/>
     <mergeCell ref="A101:A107"/>
     <mergeCell ref="A108:A109"/>
@@ -1869,6 +1907,11 @@
     <mergeCell ref="B85:B87"/>
     <mergeCell ref="B40:B61"/>
     <mergeCell ref="B73:B78"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B39"/>
+    <mergeCell ref="A2:A17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1882,7 +1925,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1895,7 +1938,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test case.xlsx
+++ b/test case.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="test case" sheetId="1" r:id="rId1"/>
@@ -192,9 +192,6 @@
     <t>ensure tests editor work</t>
   </si>
   <si>
-    <t>ensure all request tabs have a blue dot if changed</t>
-  </si>
-  <si>
     <t>response panel</t>
   </si>
   <si>
@@ -307,7 +304,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,7 +314,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -332,7 +329,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -342,7 +339,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -357,7 +354,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -367,7 +364,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -382,7 +379,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -392,7 +389,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -491,7 +488,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -508,7 +505,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -529,7 +526,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -545,7 +542,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -562,7 +559,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -578,7 +575,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -592,36 +589,40 @@
   <si>
     <t>ensure rename collection work, can't use empty name</t>
   </si>
+  <si>
+    <t>ensure all request tabs have a red dot if changed and remove dot if as same as record item</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -629,7 +630,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -690,7 +691,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -706,7 +707,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -781,23 +782,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -833,23 +817,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1028,21 +995,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="139.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="139.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="24" customHeight="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1038,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
@@ -1079,7 +1046,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
@@ -1087,7 +1054,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
@@ -1095,17 +1062,17 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
@@ -1113,17 +1080,17 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="1" t="s">
@@ -1131,7 +1098,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="1" t="s">
@@ -1139,15 +1106,15 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
@@ -1155,7 +1122,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>7</v>
@@ -1165,15 +1132,15 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
@@ -1181,7 +1148,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
@@ -1189,15 +1156,15 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
@@ -1209,7 +1176,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="1" t="s">
@@ -1217,7 +1184,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1" t="s">
@@ -1225,15 +1192,15 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1" t="s">
@@ -1241,15 +1208,15 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="1" t="s">
@@ -1257,114 +1224,127 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>95</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>93</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>38</v>
@@ -1372,527 +1352,554 @@
       <c r="C40" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" customHeight="1">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>96</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>87</v>
+      </c>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
-      <c r="C61" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="C61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="7" t="s">
+      <c r="B73" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="C73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="7" t="s">
+      <c r="B88" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="C88" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="C101" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B108" s="7" t="s">
+      <c r="C108" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B39"/>
+    <mergeCell ref="A2:A17"/>
     <mergeCell ref="B101:B107"/>
     <mergeCell ref="A101:A107"/>
     <mergeCell ref="A108:A109"/>
@@ -1907,11 +1914,6 @@
     <mergeCell ref="B85:B87"/>
     <mergeCell ref="B40:B61"/>
     <mergeCell ref="B73:B78"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B39"/>
-    <mergeCell ref="A2:A17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1925,7 +1927,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1938,7 +1940,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test case.xlsx
+++ b/test case.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="test case" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
   <si>
     <t>Module</t>
   </si>
@@ -207,12 +207,6 @@
     <t>ensure default tab is content tab</t>
   </si>
   <si>
-    <t>ensure content work</t>
-  </si>
-  <si>
-    <t>ensure title display right http status/message</t>
-  </si>
-  <si>
     <t>ensure headers work</t>
   </si>
   <si>
@@ -252,15 +246,9 @@
     <t>ensure item display right member count</t>
   </si>
   <si>
-    <t>ensure order is by owner &amp; name</t>
-  </si>
-  <si>
     <t>ensure project drop down work (after create new project)</t>
   </si>
   <si>
-    <t>member</t>
-  </si>
-  <si>
     <t>ensure member table display all member with right property</t>
   </si>
   <si>
@@ -286,9 +274,6 @@
   </si>
   <si>
     <t>ensure create new environment work</t>
-  </si>
-  <si>
-    <t>ensure edit/del environment work</t>
   </si>
   <si>
     <t>Schedule</t>
@@ -304,7 +289,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -314,7 +299,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -329,7 +314,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -339,7 +324,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -354,7 +339,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,7 +349,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -379,7 +364,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -389,7 +374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -488,7 +473,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -505,7 +490,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -526,7 +511,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -542,7 +527,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -559,7 +544,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -575,7 +560,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -593,36 +578,60 @@
     <t>ensure all request tabs have a red dot if changed and remove dot if as same as record item</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>ensure send a invalid url work</t>
+  </si>
+  <si>
+    <t>ensure content work(can't edit, beautify content)</t>
+  </si>
+  <si>
+    <t>ensure title display right http status/message/Time</t>
+  </si>
+  <si>
+    <t>sometimes height is not right</t>
+  </si>
+  <si>
+    <t>ensure me project can't disband</t>
+  </si>
+  <si>
+    <t>ensure me project member can't add other user</t>
+  </si>
+  <si>
+    <t>ensure item order by owner &amp; name</t>
+  </si>
+  <si>
+    <t>ensure duplicate/edit/del environment work</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -630,7 +639,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -691,7 +700,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -707,7 +716,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -782,6 +791,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -817,6 +843,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -993,23 +1036,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="139.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="139.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1038,7 +1081,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
@@ -1046,7 +1089,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
@@ -1054,7 +1097,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
@@ -1062,17 +1105,17 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
@@ -1080,17 +1123,17 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="1" t="s">
@@ -1098,7 +1141,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="1" t="s">
@@ -1106,15 +1149,15 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
@@ -1122,7 +1165,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>7</v>
@@ -1132,15 +1175,15 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
@@ -1148,7 +1191,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
@@ -1156,15 +1199,15 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
@@ -1176,7 +1219,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="1" t="s">
@@ -1184,7 +1227,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1" t="s">
@@ -1192,15 +1235,15 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1" t="s">
@@ -1208,15 +1251,15 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="1" t="s">
@@ -1224,23 +1267,23 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="1" t="s">
@@ -1248,7 +1291,7 @@
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="1" t="s">
@@ -1256,7 +1299,7 @@
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="1" t="s">
@@ -1264,15 +1307,15 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="1" t="s">
@@ -1280,15 +1323,15 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1" t="s">
@@ -1296,7 +1339,7 @@
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="1" t="s">
@@ -1304,7 +1347,7 @@
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
@@ -1312,7 +1355,7 @@
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="1" t="s">
@@ -1320,7 +1363,7 @@
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="1" t="s">
@@ -1328,7 +1371,7 @@
       </c>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="1" t="s">
@@ -1336,7 +1379,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="1" t="s">
@@ -1344,7 +1387,7 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>38</v>
@@ -1354,7 +1397,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="1" t="s">
@@ -1362,7 +1405,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="1" t="s">
@@ -1370,15 +1413,15 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="16.5" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="1" t="s">
@@ -1386,15 +1429,15 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="1" t="s">
@@ -1402,7 +1445,7 @@
       </c>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="1" t="s">
@@ -1410,7 +1453,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1" t="s">
@@ -1418,7 +1461,7 @@
       </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="1" t="s">
@@ -1426,494 +1469,542 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="1" t="s">
-        <v>47</v>
+      <c r="C50" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
-      <c r="C61" s="5" t="s">
-        <v>134</v>
+      <c r="C61" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="7"/>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="7"/>
+      <c r="C62" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
-      <c r="C67" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="C74" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
-      <c r="C77" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="7"/>
-      <c r="B79" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="B79" s="7"/>
       <c r="C79" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="7"/>
-      <c r="B85" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B85" s="7"/>
       <c r="C85" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="7"/>
       <c r="B88" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
+      <c r="C90" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="C91" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="7"/>
-      <c r="B97" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="B97" s="7"/>
       <c r="C97" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
+      <c r="B100" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="C100" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>113</v>
-      </c>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
       <c r="C101" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
-      <c r="C105" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
-      <c r="C107" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="C107" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
       <c r="C110" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B104:B110"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B63:B73"/>
+    <mergeCell ref="A74:A90"/>
+    <mergeCell ref="A18:A73"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B91:B99"/>
+    <mergeCell ref="A91:A103"/>
+    <mergeCell ref="B82:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B40:B62"/>
+    <mergeCell ref="B74:B81"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B18:B39"/>
     <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B101:B107"/>
-    <mergeCell ref="A101:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B62:B72"/>
-    <mergeCell ref="A73:A87"/>
-    <mergeCell ref="A18:A72"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B88:B96"/>
-    <mergeCell ref="A88:A100"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B40:B61"/>
-    <mergeCell ref="B73:B78"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1927,7 +2018,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1940,7 +2031,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test case.xlsx
+++ b/test case.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="test case" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
   <si>
     <t>Module</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>ensure member table display all member with right property</t>
-  </si>
-  <si>
-    <t>ensure inviter member  work</t>
   </si>
   <si>
     <t>ensure member accept invite will add to table</t>
@@ -289,7 +286,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -299,7 +296,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -314,7 +311,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -324,7 +321,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -339,7 +336,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -349,7 +346,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,7 +361,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -374,7 +371,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -473,7 +470,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -490,7 +487,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -511,7 +508,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -527,7 +524,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -544,7 +541,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -560,7 +557,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -602,36 +599,84 @@
   <si>
     <t>ensure duplicate/edit/del environment work</t>
   </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ember</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ensure inviter member  work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(mail)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nsure reject work(mail)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -639,8 +684,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -683,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -698,9 +750,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -716,7 +771,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -791,23 +846,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -843,23 +881,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1036,23 +1057,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="139.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="139.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="24" customHeight="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1081,7 +1102,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
@@ -1089,7 +1110,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
@@ -1097,7 +1118,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
@@ -1105,17 +1126,17 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
@@ -1123,17 +1144,17 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="1" t="s">
@@ -1141,7 +1162,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="1" t="s">
@@ -1149,15 +1170,15 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
@@ -1165,7 +1186,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>7</v>
@@ -1175,15 +1196,15 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
@@ -1191,7 +1212,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
@@ -1199,15 +1220,15 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1240,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="1" t="s">
@@ -1227,7 +1248,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1" t="s">
@@ -1235,7 +1256,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="1" t="s">
@@ -1243,7 +1264,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1" t="s">
@@ -1251,15 +1272,15 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="1" t="s">
@@ -1267,23 +1288,23 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="1" t="s">
@@ -1291,7 +1312,7 @@
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="1" t="s">
@@ -1299,7 +1320,7 @@
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="1" t="s">
@@ -1307,15 +1328,15 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="1" t="s">
@@ -1323,15 +1344,15 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1" t="s">
@@ -1339,7 +1360,7 @@
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="1" t="s">
@@ -1347,7 +1368,7 @@
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
@@ -1355,7 +1376,7 @@
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="1" t="s">
@@ -1363,7 +1384,7 @@
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="1" t="s">
@@ -1371,7 +1392,7 @@
       </c>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="1" t="s">
@@ -1379,7 +1400,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="1" t="s">
@@ -1387,7 +1408,7 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>38</v>
@@ -1397,7 +1418,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="1" t="s">
@@ -1405,7 +1426,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="1" t="s">
@@ -1413,15 +1434,15 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="16.5" customHeight="1">
+    <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="1" t="s">
@@ -1429,15 +1450,15 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="1" t="s">
@@ -1445,7 +1466,7 @@
       </c>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="1" t="s">
@@ -1453,7 +1474,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1" t="s">
@@ -1461,7 +1482,7 @@
       </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="1" t="s">
@@ -1469,15 +1490,15 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="1" t="s">
@@ -1485,7 +1506,7 @@
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="1" t="s">
@@ -1493,7 +1514,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="1" t="s">
@@ -1501,7 +1522,7 @@
       </c>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="1" t="s">
@@ -1509,7 +1530,7 @@
       </c>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="1" t="s">
@@ -1517,7 +1538,7 @@
       </c>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="1" t="s">
@@ -1525,7 +1546,7 @@
       </c>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="1" t="s">
@@ -1533,7 +1554,7 @@
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="1" t="s">
@@ -1541,7 +1562,7 @@
       </c>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="1" t="s">
@@ -1549,7 +1570,7 @@
       </c>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="1" t="s">
@@ -1557,7 +1578,7 @@
       </c>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="1" t="s">
@@ -1565,15 +1586,15 @@
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7" t="s">
         <v>58</v>
@@ -1583,7 +1604,7 @@
       </c>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="1" t="s">
@@ -1591,7 +1612,7 @@
       </c>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="1" t="s">
@@ -1599,7 +1620,7 @@
       </c>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="1" t="s">
@@ -1607,23 +1628,23 @@
       </c>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="1" t="s">
@@ -1631,7 +1652,7 @@
       </c>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="1" t="s">
@@ -1639,7 +1660,7 @@
       </c>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="1" t="s">
@@ -1647,17 +1668,17 @@
       </c>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="1" t="s">
@@ -1665,7 +1686,7 @@
       </c>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>68</v>
       </c>
@@ -1677,7 +1698,7 @@
       </c>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="1" t="s">
@@ -1685,7 +1706,7 @@
       </c>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="1" t="s">
@@ -1693,15 +1714,15 @@
       </c>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="1" t="s">
@@ -1709,7 +1730,7 @@
       </c>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="1" t="s">
@@ -1717,15 +1738,15 @@
       </c>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="1" t="s">
@@ -1733,278 +1754,290 @@
       </c>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
+      <c r="B82" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="C82" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="C84" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="C85" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
       <c r="C89" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="5" t="s">
-        <v>137</v>
+      <c r="C90" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="7" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
       <c r="C92" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7" t="s">
+      <c r="C101" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="C105" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
-      <c r="C107" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="C107" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
-      <c r="C109" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="C109" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B111" s="7" t="s">
+      <c r="C112" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="1" t="s">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="1" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B104:B110"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B63:B73"/>
-    <mergeCell ref="A74:A90"/>
-    <mergeCell ref="A18:A73"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B91:B99"/>
-    <mergeCell ref="A91:A103"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B40:B62"/>
-    <mergeCell ref="B74:B81"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="B18:B39"/>
     <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B105:B111"/>
+    <mergeCell ref="A105:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B63:B73"/>
+    <mergeCell ref="A74:A91"/>
+    <mergeCell ref="A18:A73"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B92:B100"/>
+    <mergeCell ref="A92:A104"/>
+    <mergeCell ref="B82:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B40:B62"/>
+    <mergeCell ref="B74:B81"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2018,7 +2051,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2031,7 +2064,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test case.xlsx
+++ b/test case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
   <si>
     <t>Module</t>
   </si>
@@ -583,9 +583,6 @@
   </si>
   <si>
     <t>ensure title display right http status/message/Time</t>
-  </si>
-  <si>
-    <t>sometimes height is not right</t>
   </si>
   <si>
     <t>ensure me project can't disband</t>
@@ -735,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -753,6 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1059,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1674,9 +1672,7 @@
       <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>132</v>
-      </c>
+      <c r="D72" s="9"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
@@ -1718,7 +1714,7 @@
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D77" s="4"/>
     </row>
@@ -1742,7 +1738,7 @@
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D80" s="4"/>
     </row>
@@ -1757,7 +1753,7 @@
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>77</v>
@@ -1768,7 +1764,7 @@
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D83" s="4"/>
     </row>
@@ -1776,7 +1772,7 @@
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D84" s="4"/>
     </row>
@@ -1784,7 +1780,7 @@
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D85" s="4"/>
     </row>
@@ -1834,7 +1830,7 @@
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D91" s="4"/>
     </row>
@@ -1848,6 +1844,7 @@
       <c r="C92" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
@@ -1855,6 +1852,7 @@
       <c r="C93" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="D93" s="4"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
@@ -1862,6 +1860,7 @@
       <c r="C94" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="D94" s="4"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
@@ -1869,6 +1868,7 @@
       <c r="C95" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="D95" s="4"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
@@ -1876,36 +1876,41 @@
       <c r="C96" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7" t="s">
         <v>100</v>
@@ -1913,29 +1918,33 @@
       <c r="C101" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>106</v>
       </c>
@@ -1945,50 +1954,57 @@
       <c r="C105" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>105</v>
       </c>
@@ -1998,15 +2014,17 @@
       <c r="C112" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>116</v>
       </c>
@@ -2016,14 +2034,10 @@
       <c r="C114" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="D114" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B39"/>
-    <mergeCell ref="A2:A17"/>
     <mergeCell ref="B105:B111"/>
     <mergeCell ref="A105:A111"/>
     <mergeCell ref="A112:A113"/>
@@ -2038,6 +2052,11 @@
     <mergeCell ref="B89:B91"/>
     <mergeCell ref="B40:B62"/>
     <mergeCell ref="B74:B81"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B39"/>
+    <mergeCell ref="A2:A17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test case.xlsx
+++ b/test case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="142">
   <si>
     <t>Module</t>
   </si>
@@ -30,9 +30,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>unit test</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>ensure list width is 300px at first and will remember width if change it.</t>
   </si>
   <si>
-    <t>ensure list display all collection from db (empty and has data)</t>
-  </si>
-  <si>
     <t>ensure collection could collapse/expand</t>
   </si>
   <si>
@@ -234,13 +228,7 @@
     <t>ensure add project work</t>
   </si>
   <si>
-    <t>ensure project menu visible when mouse is over</t>
-  </si>
-  <si>
     <t>ensure rename project work</t>
-  </si>
-  <si>
-    <t>ensure disband/quit project work</t>
   </si>
   <si>
     <t>ensure item display right member count</t>
@@ -392,9 +380,6 @@
   </si>
   <si>
     <t>ensure delete schedule work</t>
-  </si>
-  <si>
-    <t>ensure edit schedule  work</t>
   </si>
   <si>
     <t>ensure schedule run now work(websocket : display record running info)</t>
@@ -550,22 +535,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>iss msg</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ensure add new collection works(popup dialog include project drop down, can't ok with no project)</t>
   </si>
   <si>
@@ -641,6 +610,113 @@
         <scheme val="minor"/>
       </rPr>
       <t>nsure reject work(mail)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nsure create request work in collection/folder menu</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensure edit schedule work(collections, env, sort record, match/unmatch)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nsure localhost mapping work</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nsure try without login work</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nsure record history work with correct diff</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>miss msg</t>
+  </si>
+  <si>
+    <t>ensure list display all collection from db (empty and has data)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ensure disband/quit project work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (collection filter should be 'All' and remove/close all request of this project)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ensure project menu visible when mouse is over</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> except Me project</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -694,7 +770,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,7 +791,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -743,14 +825,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1055,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1152,7 @@
     <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="139.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="10" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
@@ -1081,22 +1167,20 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -1104,7 +1188,7 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -1112,7 +1196,7 @@
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -1120,7 +1204,7 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -1128,35 +1212,36 @@
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>125</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>121</v>
+      <c r="B8" s="7"/>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
+      <c r="B9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -1164,49 +1249,49 @@
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="5" t="s">
-        <v>122</v>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
+      <c r="C12" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
-        <v>123</v>
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
+      <c r="C15" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -1214,43 +1299,43 @@
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="5" t="s">
-        <v>124</v>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
+      <c r="C20" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -1258,7 +1343,7 @@
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -1266,23 +1351,23 @@
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="5" t="s">
-        <v>126</v>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="1" t="s">
-        <v>31</v>
+      <c r="C24" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -1290,31 +1375,31 @@
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="5" t="s">
-        <v>127</v>
+      <c r="C26" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="1" t="s">
-        <v>32</v>
+      <c r="C27" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="1" t="s">
-        <v>33</v>
+      <c r="C28" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -1322,7 +1407,7 @@
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D29" s="4"/>
     </row>
@@ -1330,7 +1415,7 @@
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="D30" s="4"/>
     </row>
@@ -1338,7 +1423,7 @@
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D31" s="4"/>
     </row>
@@ -1346,7 +1431,7 @@
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D32" s="4"/>
     </row>
@@ -1354,7 +1439,7 @@
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D33" s="4"/>
     </row>
@@ -1362,7 +1447,7 @@
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="D34" s="4"/>
     </row>
@@ -1370,7 +1455,7 @@
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D35" s="4"/>
     </row>
@@ -1378,7 +1463,7 @@
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D36" s="4"/>
     </row>
@@ -1386,7 +1471,7 @@
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D37" s="4"/>
     </row>
@@ -1394,7 +1479,7 @@
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D38" s="4"/>
     </row>
@@ -1402,25 +1487,23 @@
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="B40" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="B40" s="7"/>
       <c r="C40" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="1" t="s">
-        <v>40</v>
+      <c r="C41" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="D41" s="4"/>
     </row>
@@ -1428,15 +1511,17 @@
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+      <c r="B43" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="C43" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="D43" s="4"/>
     </row>
@@ -1444,7 +1529,7 @@
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D44" s="4"/>
     </row>
@@ -1452,15 +1537,15 @@
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="1" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="D46" s="4"/>
     </row>
@@ -1468,7 +1553,7 @@
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D47" s="4"/>
     </row>
@@ -1476,7 +1561,7 @@
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D48" s="4"/>
     </row>
@@ -1484,15 +1569,15 @@
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="5" t="s">
-        <v>129</v>
+      <c r="C50" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D50" s="4"/>
     </row>
@@ -1500,7 +1585,7 @@
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D51" s="4"/>
     </row>
@@ -1508,15 +1593,15 @@
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
-      <c r="C53" s="1" t="s">
-        <v>49</v>
+      <c r="C53" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="D53" s="4"/>
     </row>
@@ -1524,7 +1609,7 @@
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D54" s="4"/>
     </row>
@@ -1532,7 +1617,7 @@
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D55" s="4"/>
     </row>
@@ -1540,7 +1625,7 @@
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D56" s="4"/>
     </row>
@@ -1548,7 +1633,7 @@
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D57" s="4"/>
     </row>
@@ -1556,7 +1641,7 @@
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D58" s="4"/>
     </row>
@@ -1564,7 +1649,7 @@
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D59" s="4"/>
     </row>
@@ -1572,7 +1657,7 @@
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D60" s="4"/>
     </row>
@@ -1580,25 +1665,23 @@
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="5" t="s">
-        <v>128</v>
+      <c r="C62" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
-      <c r="B63" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="B63" s="7"/>
       <c r="C63" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D63" s="4"/>
     </row>
@@ -1606,39 +1689,41 @@
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
-      <c r="C65" s="1" t="s">
-        <v>61</v>
+      <c r="C65" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
+      <c r="B66" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="C66" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
-      <c r="C67" s="5" t="s">
-        <v>130</v>
+      <c r="C67" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="5" t="s">
-        <v>131</v>
+      <c r="C68" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D68" s="4"/>
     </row>
@@ -1646,23 +1731,23 @@
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="1" t="s">
-        <v>64</v>
+      <c r="C70" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="1" t="s">
-        <v>65</v>
+      <c r="C71" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="D71" s="4"/>
     </row>
@@ -1670,27 +1755,23 @@
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D72" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
       <c r="C74" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D74" s="4"/>
     </row>
@@ -1698,23 +1779,27 @@
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="D75" s="6"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="5" t="s">
-        <v>132</v>
+      <c r="A77" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D77" s="4"/>
     </row>
@@ -1722,15 +1807,15 @@
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
-      <c r="C79" s="1" t="s">
-        <v>73</v>
+      <c r="C79" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="D79" s="4"/>
     </row>
@@ -1738,25 +1823,23 @@
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="1" t="s">
-        <v>75</v>
+      <c r="C81" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
-      <c r="B82" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="B82" s="7"/>
       <c r="C82" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D82" s="4"/>
     </row>
@@ -1764,57 +1847,57 @@
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="5" t="s">
-        <v>137</v>
+      <c r="C84" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="5" t="s">
-        <v>138</v>
+      <c r="B85" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
-      <c r="C86" s="1" t="s">
-        <v>78</v>
+      <c r="C86" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
-      <c r="C87" s="1" t="s">
-        <v>79</v>
+      <c r="C87" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="1" t="s">
-        <v>80</v>
+      <c r="C88" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
-      <c r="B89" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="B89" s="7"/>
       <c r="C89" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D89" s="4"/>
     </row>
@@ -1822,27 +1905,25 @@
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="5" t="s">
-        <v>135</v>
+      <c r="C91" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="A92" s="7"/>
       <c r="B92" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D92" s="4"/>
     </row>
@@ -1850,213 +1931,249 @@
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
-      <c r="C94" s="1" t="s">
-        <v>93</v>
+      <c r="C94" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
-      <c r="C95" s="1" t="s">
-        <v>94</v>
+      <c r="C95" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
+      <c r="A96" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="C96" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
-      <c r="B101" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="7"/>
+      <c r="C101" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
-        <v>106</v>
-      </c>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="7"/>
       <c r="B105" s="7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
-      <c r="C108" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="5" t="s">
-        <v>119</v>
+      <c r="C108" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>114</v>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
-      <c r="C113" s="1" t="s">
-        <v>115</v>
+      <c r="C113" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
       <c r="C114" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D118" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B105:B111"/>
-    <mergeCell ref="A105:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B63:B73"/>
-    <mergeCell ref="A74:A91"/>
-    <mergeCell ref="A18:A73"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B92:B100"/>
-    <mergeCell ref="A92:A104"/>
-    <mergeCell ref="B82:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B40:B62"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B39"/>
-    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B42"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B109:B115"/>
+    <mergeCell ref="A109:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B66:B76"/>
+    <mergeCell ref="A77:A95"/>
+    <mergeCell ref="A19:A76"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B96:B104"/>
+    <mergeCell ref="A96:A108"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="B43:B65"/>
+    <mergeCell ref="B77:B84"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test case.xlsx
+++ b/test case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
   <si>
     <t>Module</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>ensure list width is 300px at first and will remember width if change it.</t>
-  </si>
-  <si>
-    <t>ensure collection could collapse/expand</t>
   </si>
   <si>
     <t>ensure select project in toolbar works</t>
@@ -717,6 +714,130 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> except Me project</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensure reocrd display correct param req num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nsure parameter type work(many to many and one to one)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensure parameters work (param req count, status)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nsure display all parameters status for param reqs</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensure display correctly data if select param for param reqs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nsure environment variables work</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensure runtime variables work</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ensure variable is applied in this order: parameter-&gt;runtime-&gt;env </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nsure schedule's result correctly( match/unmatch, parameters, compare by using export data)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensure cookies are applied to request which is in the same collection/host (if no cookie, should not send cookie header)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensure request include default headers defined in appconfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ensure collection could collapse/expand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (filter/unfilter project)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nsure logout with clear cache work</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -797,7 +918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,16 +947,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1141,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1273,7 @@
     <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="139.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
@@ -1167,16 +1288,16 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1185,101 +1306,101 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1288,42 +1409,42 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1332,848 +1453,945 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="1" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="5" t="s">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="1" t="s">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="1" t="s">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="1" t="s">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="1" t="s">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="1" t="s">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="9"/>
+      <c r="B95" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="1" t="s">
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="1" t="s">
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="1" t="s">
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="1" t="s">
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="1" t="s">
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="1" t="s">
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="1" t="s">
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="9"/>
+      <c r="B115" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7" t="s">
+      <c r="C115" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="1" t="s">
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="1" t="s">
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="1" t="s">
+      <c r="D119" s="6"/>
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="5"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="1" t="s">
+      <c r="B128" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B116" s="7" t="s">
+      <c r="C128" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="1" t="s">
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D118" s="4"/>
+      <c r="D130" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B120:B127"/>
+    <mergeCell ref="A120:A127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B74:B86"/>
+    <mergeCell ref="A87:A105"/>
+    <mergeCell ref="A19:A86"/>
+    <mergeCell ref="B115:B119"/>
+    <mergeCell ref="B106:B114"/>
+    <mergeCell ref="A106:A119"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B44:B73"/>
+    <mergeCell ref="B87:B94"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B42"/>
+    <mergeCell ref="B19:B43"/>
     <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B109:B115"/>
-    <mergeCell ref="A109:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B66:B76"/>
-    <mergeCell ref="A77:A95"/>
-    <mergeCell ref="A19:A76"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B96:B104"/>
-    <mergeCell ref="A96:A108"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="B43:B65"/>
-    <mergeCell ref="B77:B84"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
